--- a/data/pca/factorExposure/factorExposure_2012-06-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-06-25.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.0177115161869963</v>
+        <v>-0.02275884004234056</v>
       </c>
       <c r="C2">
-        <v>-0.02872969841038633</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02358304400823352</v>
+      </c>
+      <c r="D2">
+        <v>0.004055071120745368</v>
+      </c>
+      <c r="E2">
+        <v>0.01912018314238187</v>
+      </c>
+      <c r="F2">
+        <v>0.00405207438323808</v>
+      </c>
+      <c r="G2">
+        <v>0.01187950610591193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +757,45 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06797551424320183</v>
+        <v>-0.07588087096622488</v>
       </c>
       <c r="C4">
-        <v>-0.06148789375646197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.04128087169978951</v>
+      </c>
+      <c r="D4">
+        <v>0.07095765515612812</v>
+      </c>
+      <c r="E4">
+        <v>-0.002420648016436777</v>
+      </c>
+      <c r="F4">
+        <v>0.0291250069441069</v>
+      </c>
+      <c r="G4">
+        <v>-0.01289070796535794</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +803,275 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.09734460624402472</v>
+        <v>-0.1144723320317725</v>
       </c>
       <c r="C6">
-        <v>-0.06954795520356016</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.04677647558096876</v>
+      </c>
+      <c r="D6">
+        <v>0.007731110150599493</v>
+      </c>
+      <c r="E6">
+        <v>0.0006768095537883655</v>
+      </c>
+      <c r="F6">
+        <v>0.04879944176195594</v>
+      </c>
+      <c r="G6">
+        <v>0.007677933464580037</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.04444253795589411</v>
+        <v>-0.0547184881642216</v>
       </c>
       <c r="C7">
-        <v>-0.03444997169154264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.02577080788017834</v>
+      </c>
+      <c r="D7">
+        <v>0.03400560876924506</v>
+      </c>
+      <c r="E7">
+        <v>0.0211973599229634</v>
+      </c>
+      <c r="F7">
+        <v>0.03502484249830898</v>
+      </c>
+      <c r="G7">
+        <v>-0.03933533381650046</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.03288560519724445</v>
+        <v>-0.03511997265017407</v>
       </c>
       <c r="C8">
-        <v>-0.02795335536102822</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01680767375106292</v>
+      </c>
+      <c r="D8">
+        <v>0.03983308375182274</v>
+      </c>
+      <c r="E8">
+        <v>0.005642574814684074</v>
+      </c>
+      <c r="F8">
+        <v>0.04549398769389792</v>
+      </c>
+      <c r="G8">
+        <v>0.02118842710990796</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.062919070405455</v>
+        <v>-0.07188235935511447</v>
       </c>
       <c r="C9">
-        <v>-0.04705868376201984</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02950321999877046</v>
+      </c>
+      <c r="D9">
+        <v>0.06961766904220784</v>
+      </c>
+      <c r="E9">
+        <v>0.01405074373058884</v>
+      </c>
+      <c r="F9">
+        <v>0.03828815925132786</v>
+      </c>
+      <c r="G9">
+        <v>-0.008201803819900686</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02767483360163472</v>
+        <v>-0.03993459381078793</v>
       </c>
       <c r="C10">
-        <v>-0.03885473081262684</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.03935503317627535</v>
+      </c>
+      <c r="D10">
+        <v>-0.1852090208621869</v>
+      </c>
+      <c r="E10">
+        <v>0.05025096643450062</v>
+      </c>
+      <c r="F10">
+        <v>0.03653316983345098</v>
+      </c>
+      <c r="G10">
+        <v>-0.03222375993528825</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.06857418791115145</v>
+        <v>-0.07607232063533206</v>
       </c>
       <c r="C11">
-        <v>-0.05421512497761229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.03187154217191678</v>
+      </c>
+      <c r="D11">
+        <v>0.0680541453320834</v>
+      </c>
+      <c r="E11">
+        <v>-0.01103227633817537</v>
+      </c>
+      <c r="F11">
+        <v>0.03936913486314911</v>
+      </c>
+      <c r="G11">
+        <v>-0.02090324120275911</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.05271815997732364</v>
+        <v>-0.06172002552454869</v>
       </c>
       <c r="C12">
-        <v>-0.0521623144065672</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03585017505950494</v>
+      </c>
+      <c r="D12">
+        <v>0.05189666698100928</v>
+      </c>
+      <c r="E12">
+        <v>0.008154202795746418</v>
+      </c>
+      <c r="F12">
+        <v>0.03070105683962254</v>
+      </c>
+      <c r="G12">
+        <v>-0.02174665206135975</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.0582233156408716</v>
+        <v>-0.06500016447619213</v>
       </c>
       <c r="C13">
-        <v>-0.05462048751948483</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.03357880449410242</v>
+      </c>
+      <c r="D13">
+        <v>0.05145252799720664</v>
+      </c>
+      <c r="E13">
+        <v>0.004086913450362372</v>
+      </c>
+      <c r="F13">
+        <v>0.01970855854043363</v>
+      </c>
+      <c r="G13">
+        <v>-0.007708592530935966</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.0334960693005588</v>
+        <v>-0.03844828284477288</v>
       </c>
       <c r="C14">
-        <v>-0.02621372053334069</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.01933856680577502</v>
+      </c>
+      <c r="D14">
+        <v>0.009774376664635639</v>
+      </c>
+      <c r="E14">
+        <v>0.01084520991655154</v>
+      </c>
+      <c r="F14">
+        <v>0.01536005831182273</v>
+      </c>
+      <c r="G14">
+        <v>0.002829888424420896</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03962709933290522</v>
+        <v>-0.04054147211834145</v>
       </c>
       <c r="C15">
-        <v>-0.01382654990775639</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.003746766700555165</v>
+      </c>
+      <c r="D15">
+        <v>0.01802248050544437</v>
+      </c>
+      <c r="E15">
+        <v>0.0373416092035767</v>
+      </c>
+      <c r="F15">
+        <v>0.001326085112422592</v>
+      </c>
+      <c r="G15">
+        <v>0.01834772799448989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05715799765458281</v>
+        <v>-0.06223934803298158</v>
       </c>
       <c r="C16">
-        <v>-0.04508236674695769</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02795524286899196</v>
+      </c>
+      <c r="D16">
+        <v>0.06042638136754842</v>
+      </c>
+      <c r="E16">
+        <v>-0.00238055712360776</v>
+      </c>
+      <c r="F16">
+        <v>0.03327566017904665</v>
+      </c>
+      <c r="G16">
+        <v>-0.009343556666262102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1079,22 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1102,22 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.06219465461012032</v>
+        <v>-0.06204478335357867</v>
       </c>
       <c r="C20">
-        <v>-0.03765725320951349</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01776226954813128</v>
+      </c>
+      <c r="D20">
+        <v>0.04859917230640531</v>
+      </c>
+      <c r="E20">
+        <v>0.01565187955205136</v>
+      </c>
+      <c r="F20">
+        <v>0.02972119944267093</v>
+      </c>
+      <c r="G20">
+        <v>-0.0209204034472427</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.02703848998539931</v>
+        <v>-0.02358810246387934</v>
       </c>
       <c r="C21">
-        <v>-0.000574921086636836</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.009633206145712</v>
+      </c>
+      <c r="D21">
+        <v>0.03104238086864337</v>
+      </c>
+      <c r="E21">
+        <v>0.09289593637059598</v>
+      </c>
+      <c r="F21">
+        <v>-0.002114307131934745</v>
+      </c>
+      <c r="G21">
+        <v>0.01596117985229084</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.06936538980819705</v>
+        <v>-0.06528200133658822</v>
       </c>
       <c r="C22">
-        <v>-0.07567049565346741</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.04469107102032087</v>
+      </c>
+      <c r="D22">
+        <v>0.1068097387832928</v>
+      </c>
+      <c r="E22">
+        <v>0.6136747234721512</v>
+      </c>
+      <c r="F22">
+        <v>-0.1335052219893075</v>
+      </c>
+      <c r="G22">
+        <v>-0.01030079103025464</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.07004030262915345</v>
+        <v>-0.0659765484923715</v>
       </c>
       <c r="C23">
-        <v>-0.0753235927951709</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.04423260938064889</v>
+      </c>
+      <c r="D23">
+        <v>0.1078556924252705</v>
+      </c>
+      <c r="E23">
+        <v>0.6128826762206743</v>
+      </c>
+      <c r="F23">
+        <v>-0.1332459566610179</v>
+      </c>
+      <c r="G23">
+        <v>-0.00824032399388885</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06515393271966607</v>
+        <v>-0.07416221882777406</v>
       </c>
       <c r="C24">
-        <v>-0.05359397928943617</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03332616879452879</v>
+      </c>
+      <c r="D24">
+        <v>0.06539459888183521</v>
+      </c>
+      <c r="E24">
+        <v>0.005673940403607377</v>
+      </c>
+      <c r="F24">
+        <v>0.04608387031259303</v>
+      </c>
+      <c r="G24">
+        <v>-0.01040393313601299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.06441496370289236</v>
+        <v>-0.07201699721171481</v>
       </c>
       <c r="C25">
-        <v>-0.05891424732323309</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03864494683724991</v>
+      </c>
+      <c r="D25">
+        <v>0.06497056635003347</v>
+      </c>
+      <c r="E25">
+        <v>0.006163293362280656</v>
+      </c>
+      <c r="F25">
+        <v>0.04061058812750338</v>
+      </c>
+      <c r="G25">
+        <v>-0.0006797368652030417</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.03861885934366249</v>
+        <v>-0.04048813515719987</v>
       </c>
       <c r="C26">
-        <v>-0.01440111457505338</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.005535971056016968</v>
+      </c>
+      <c r="D26">
+        <v>0.02149394857746541</v>
+      </c>
+      <c r="E26">
+        <v>0.03854229422382261</v>
+      </c>
+      <c r="F26">
+        <v>0.02200895741264585</v>
+      </c>
+      <c r="G26">
+        <v>-0.01720841895330631</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1309,229 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.05049794782182278</v>
+        <v>-0.0738275653127599</v>
       </c>
       <c r="C28">
-        <v>-0.07213466718469759</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.07341463607629056</v>
+      </c>
+      <c r="D28">
+        <v>-0.3241768677348814</v>
+      </c>
+      <c r="E28">
+        <v>0.04244368704563961</v>
+      </c>
+      <c r="F28">
+        <v>0.04844579683575753</v>
+      </c>
+      <c r="G28">
+        <v>0.02821147435558596</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.03530415229216109</v>
+        <v>-0.04222100865314371</v>
       </c>
       <c r="C29">
-        <v>-0.03159261675725793</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02435060332523566</v>
+      </c>
+      <c r="D29">
+        <v>0.009681756620510963</v>
+      </c>
+      <c r="E29">
+        <v>0.03726709329341912</v>
+      </c>
+      <c r="F29">
+        <v>0.01248759257556279</v>
+      </c>
+      <c r="G29">
+        <v>-0.01092871655821486</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.1158459698301347</v>
+        <v>-0.1304146705653869</v>
       </c>
       <c r="C30">
-        <v>-0.09807762129143946</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.06392972727412902</v>
+      </c>
+      <c r="D30">
+        <v>0.1016290504341593</v>
+      </c>
+      <c r="E30">
+        <v>0.03165578991049469</v>
+      </c>
+      <c r="F30">
+        <v>0.02219885936615577</v>
+      </c>
+      <c r="G30">
+        <v>0.00112387562093977</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.03806919560774163</v>
+        <v>-0.04288010650014208</v>
       </c>
       <c r="C31">
-        <v>-0.02518082193761162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.0145035619587894</v>
+      </c>
+      <c r="D31">
+        <v>0.02873108254740904</v>
+      </c>
+      <c r="E31">
+        <v>0.02069934121905541</v>
+      </c>
+      <c r="F31">
+        <v>0.01482518698029088</v>
+      </c>
+      <c r="G31">
+        <v>-0.0234937089543625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.03222599738472435</v>
+        <v>-0.03288140936573932</v>
       </c>
       <c r="C32">
-        <v>-0.02400545724132406</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01511807767183916</v>
+      </c>
+      <c r="D32">
+        <v>0.01915465241264326</v>
+      </c>
+      <c r="E32">
+        <v>0.05794140293173869</v>
+      </c>
+      <c r="F32">
+        <v>-0.008706877449100084</v>
+      </c>
+      <c r="G32">
+        <v>0.02586348850758399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07465694124298303</v>
+        <v>-0.08794423297731678</v>
       </c>
       <c r="C33">
-        <v>-0.05372960941576136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.034596915073809</v>
+      </c>
+      <c r="D33">
+        <v>0.06465028361427437</v>
+      </c>
+      <c r="E33">
+        <v>0.009423029209209103</v>
+      </c>
+      <c r="F33">
+        <v>0.008548731511827414</v>
+      </c>
+      <c r="G33">
+        <v>-0.02161444796450862</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05067666612810962</v>
+        <v>-0.05663563465749528</v>
       </c>
       <c r="C34">
-        <v>-0.03306507811681075</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01834413343489223</v>
+      </c>
+      <c r="D34">
+        <v>0.05945748612436266</v>
+      </c>
+      <c r="E34">
+        <v>0.002607323733449783</v>
+      </c>
+      <c r="F34">
+        <v>0.02742899832833151</v>
+      </c>
+      <c r="G34">
+        <v>-0.002680746860556955</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.03675675437231883</v>
+        <v>-0.03904301500834007</v>
       </c>
       <c r="C35">
-        <v>-0.01371297379540383</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.005587046805457732</v>
+      </c>
+      <c r="D35">
+        <v>0.009899702907746303</v>
+      </c>
+      <c r="E35">
+        <v>0.02787872519770986</v>
+      </c>
+      <c r="F35">
+        <v>-0.002717722962766791</v>
+      </c>
+      <c r="G35">
+        <v>-0.01079031898470725</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01836910466597716</v>
+        <v>-0.02286646573602698</v>
       </c>
       <c r="C36">
-        <v>-0.01751941325259963</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01184758699110857</v>
+      </c>
+      <c r="D36">
+        <v>0.0197750578082197</v>
+      </c>
+      <c r="E36">
+        <v>0.03337287467121263</v>
+      </c>
+      <c r="F36">
+        <v>0.02099564814483654</v>
+      </c>
+      <c r="G36">
+        <v>-0.0148821901871643</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1539,114 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03848018513505345</v>
+        <v>-0.04039031052851796</v>
       </c>
       <c r="C38">
-        <v>-0.01190088319014799</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.002451065024378378</v>
+      </c>
+      <c r="D38">
+        <v>0.01027016085295044</v>
+      </c>
+      <c r="E38">
+        <v>0.05966444095609003</v>
+      </c>
+      <c r="F38">
+        <v>-0.02002557295361554</v>
+      </c>
+      <c r="G38">
+        <v>0.01521571823102666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08671263559657429</v>
+        <v>-0.1000831911360054</v>
       </c>
       <c r="C39">
-        <v>-0.08415614559373902</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.05661452458219859</v>
+      </c>
+      <c r="D39">
+        <v>0.08601676865689777</v>
+      </c>
+      <c r="E39">
+        <v>-0.01821977276462057</v>
+      </c>
+      <c r="F39">
+        <v>0.02250771779143248</v>
+      </c>
+      <c r="G39">
+        <v>0.01688021601151674</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.06546184239587194</v>
+        <v>-0.07265249394983128</v>
       </c>
       <c r="C40">
-        <v>-0.05547210333306273</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.03592834165771917</v>
+      </c>
+      <c r="D40">
+        <v>0.01291142389828286</v>
+      </c>
+      <c r="E40">
+        <v>0.02479087681519827</v>
+      </c>
+      <c r="F40">
+        <v>-0.0467160458860657</v>
+      </c>
+      <c r="G40">
+        <v>0.0566603851107452</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.03887867679737286</v>
+        <v>-0.04262928154162671</v>
       </c>
       <c r="C41">
-        <v>-0.01759096470798929</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.008474286690271511</v>
+      </c>
+      <c r="D41">
+        <v>0.04131343833020421</v>
+      </c>
+      <c r="E41">
+        <v>0.00714144198443294</v>
+      </c>
+      <c r="F41">
+        <v>-0.007007595011760222</v>
+      </c>
+      <c r="G41">
+        <v>0.00802460116007812</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1654,68 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04139362438246174</v>
+        <v>-0.05026147032198264</v>
       </c>
       <c r="C43">
-        <v>-0.03764043207762158</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.02437520510731236</v>
+      </c>
+      <c r="D43">
+        <v>0.02903666489920621</v>
+      </c>
+      <c r="E43">
+        <v>0.01596306784803361</v>
+      </c>
+      <c r="F43">
+        <v>0.01513202054405299</v>
+      </c>
+      <c r="G43">
+        <v>-0.01050295376238034</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.08921509023827383</v>
+        <v>-0.09215847490225035</v>
       </c>
       <c r="C44">
-        <v>-0.09341039451039765</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06162812115183738</v>
+      </c>
+      <c r="D44">
+        <v>0.06176551477111256</v>
+      </c>
+      <c r="E44">
+        <v>0.09545524458284829</v>
+      </c>
+      <c r="F44">
+        <v>0.06703337632525187</v>
+      </c>
+      <c r="G44">
+        <v>0.009279185027234422</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1723,160 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0274752164713245</v>
+        <v>-0.02894563995235715</v>
       </c>
       <c r="C46">
-        <v>-0.0178919650563841</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.01047056903266111</v>
+      </c>
+      <c r="D46">
+        <v>0.03307141546977798</v>
+      </c>
+      <c r="E46">
+        <v>0.01672674210607962</v>
+      </c>
+      <c r="F46">
+        <v>0.01977065981535475</v>
+      </c>
+      <c r="G46">
+        <v>0.006797376796238907</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.0289913952418343</v>
+        <v>-0.03180611353025592</v>
       </c>
       <c r="C47">
-        <v>-0.02327420912932735</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.01438758553624598</v>
+      </c>
+      <c r="D47">
+        <v>0.01875610866915225</v>
+      </c>
+      <c r="E47">
+        <v>0.04840217517144428</v>
+      </c>
+      <c r="F47">
+        <v>0.01476059899922574</v>
+      </c>
+      <c r="G47">
+        <v>-0.01912834647156795</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02752631858972946</v>
+        <v>-0.03134117883391983</v>
       </c>
       <c r="C48">
-        <v>-0.01996522301811929</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.01199660920835795</v>
+      </c>
+      <c r="D48">
+        <v>0.03040925674426732</v>
+      </c>
+      <c r="E48">
+        <v>0.04324265733587392</v>
+      </c>
+      <c r="F48">
+        <v>0.0190047169830493</v>
+      </c>
+      <c r="G48">
+        <v>-0.004364568526388626</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1513898682652817</v>
+        <v>-0.1755166882853109</v>
       </c>
       <c r="C49">
-        <v>-0.0951329668499305</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.05819380621384684</v>
+      </c>
+      <c r="D49">
+        <v>0.009444308215505438</v>
+      </c>
+      <c r="E49">
+        <v>-0.1327109275097741</v>
+      </c>
+      <c r="F49">
+        <v>0.0213722278445089</v>
+      </c>
+      <c r="G49">
+        <v>-0.05492861761961768</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.03354806992896765</v>
+        <v>-0.04053777001605912</v>
       </c>
       <c r="C50">
-        <v>-0.02662880213269091</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.02126246545628926</v>
+      </c>
+      <c r="D50">
+        <v>0.03772014897663473</v>
+      </c>
+      <c r="E50">
+        <v>0.0423030114373911</v>
+      </c>
+      <c r="F50">
+        <v>0.02840567263448171</v>
+      </c>
+      <c r="G50">
+        <v>-0.02289675178042762</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.02428192462488542</v>
+        <v>-0.02560558498075757</v>
       </c>
       <c r="C51">
-        <v>-0.01690926406054567</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.009413282036646554</v>
+      </c>
+      <c r="D51">
+        <v>0.02665452459607654</v>
+      </c>
+      <c r="E51">
+        <v>0.01278112196577624</v>
+      </c>
+      <c r="F51">
+        <v>0.00503489910655558</v>
+      </c>
+      <c r="G51">
+        <v>0.009682737222956372</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1884,114 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1399615335421672</v>
+        <v>-0.1586344021097599</v>
       </c>
       <c r="C53">
-        <v>-0.1030790223663823</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.06891027619018661</v>
+      </c>
+      <c r="D53">
+        <v>0.02291619605486552</v>
+      </c>
+      <c r="E53">
+        <v>-0.03893906290559684</v>
+      </c>
+      <c r="F53">
+        <v>0.02372739509092551</v>
+      </c>
+      <c r="G53">
+        <v>-0.002446696426826096</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.05176938123622232</v>
+        <v>-0.05652391929753633</v>
       </c>
       <c r="C54">
-        <v>-0.02851267635496761</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01426930256869041</v>
+      </c>
+      <c r="D54">
+        <v>0.03757568976332346</v>
+      </c>
+      <c r="E54">
+        <v>0.04117739142284892</v>
+      </c>
+      <c r="F54">
+        <v>0.01659920511293862</v>
+      </c>
+      <c r="G54">
+        <v>-0.002698174551283397</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.09388612780639395</v>
+        <v>-0.1010419626358632</v>
       </c>
       <c r="C55">
-        <v>-0.06468318128442686</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.04249024645803049</v>
+      </c>
+      <c r="D55">
+        <v>0.03200204555384942</v>
+      </c>
+      <c r="E55">
+        <v>0.006656213815138661</v>
+      </c>
+      <c r="F55">
+        <v>0.02677478717661123</v>
+      </c>
+      <c r="G55">
+        <v>0.002547911138960502</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1360897560365613</v>
+        <v>-0.1571664390666551</v>
       </c>
       <c r="C56">
-        <v>-0.112136136593698</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.07759092857430502</v>
+      </c>
+      <c r="D56">
+        <v>0.01767985954454922</v>
+      </c>
+      <c r="E56">
+        <v>-0.0380638675016749</v>
+      </c>
+      <c r="F56">
+        <v>0.05375558074134071</v>
+      </c>
+      <c r="G56">
+        <v>-0.01742623974039104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1999,896 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.1148255218881171</v>
+        <v>-0.1046165351029285</v>
       </c>
       <c r="C58">
-        <v>-0.03356513130590226</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.002676352914933503</v>
+      </c>
+      <c r="D58">
+        <v>0.06129211296903396</v>
+      </c>
+      <c r="E58">
+        <v>0.1863506038044303</v>
+      </c>
+      <c r="F58">
+        <v>0.04019108034061309</v>
+      </c>
+      <c r="G58">
+        <v>-0.06557358918430435</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1025292672697394</v>
+        <v>-0.1454815755489764</v>
       </c>
       <c r="C59">
-        <v>-0.08918644953138551</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.08638031680439263</v>
+      </c>
+      <c r="D59">
+        <v>-0.3509408552143461</v>
+      </c>
+      <c r="E59">
+        <v>0.05025424183677227</v>
+      </c>
+      <c r="F59">
+        <v>-0.02351302518360798</v>
+      </c>
+      <c r="G59">
+        <v>-0.02247651476238807</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.181297175711801</v>
+        <v>-0.2134985281484212</v>
       </c>
       <c r="C60">
-        <v>-0.1221434121899379</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.08225067521156657</v>
+      </c>
+      <c r="D60">
+        <v>0.01183803914925316</v>
+      </c>
+      <c r="E60">
+        <v>-0.07095639545584032</v>
+      </c>
+      <c r="F60">
+        <v>0.03681642281729547</v>
+      </c>
+      <c r="G60">
+        <v>0.03280359474793271</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.07481936157606291</v>
+        <v>-0.08464470655637547</v>
       </c>
       <c r="C61">
-        <v>-0.0610696709901634</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.04009123855875548</v>
+      </c>
+      <c r="D61">
+        <v>0.06197270462125684</v>
+      </c>
+      <c r="E61">
+        <v>-0.01743830276744502</v>
+      </c>
+      <c r="F61">
+        <v>0.01307795032536049</v>
+      </c>
+      <c r="G61">
+        <v>-0.0221125087321328</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1129330624744275</v>
+        <v>-0.1363507306975881</v>
       </c>
       <c r="C62">
-        <v>-0.08333167788765827</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.05981969495754053</v>
+      </c>
+      <c r="D62">
+        <v>0.02562555545626473</v>
+      </c>
+      <c r="E62">
+        <v>-0.05670969519858789</v>
+      </c>
+      <c r="F62">
+        <v>0.02135628158933252</v>
+      </c>
+      <c r="G62">
+        <v>0.02968303646459674</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.04908915855797389</v>
+        <v>-0.05175653542864805</v>
       </c>
       <c r="C63">
-        <v>-0.02935936342641317</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01738665930546069</v>
+      </c>
+      <c r="D63">
+        <v>0.03021739814605037</v>
+      </c>
+      <c r="E63">
+        <v>0.04959135343859235</v>
+      </c>
+      <c r="F63">
+        <v>0.01646935414205851</v>
+      </c>
+      <c r="G63">
+        <v>0.02313353349702039</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1057879390298356</v>
+        <v>-0.1113213086400287</v>
       </c>
       <c r="C64">
-        <v>-0.04755430125076455</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.02283094104830992</v>
+      </c>
+      <c r="D64">
+        <v>0.04715499295875858</v>
+      </c>
+      <c r="E64">
+        <v>0.02736085238717038</v>
+      </c>
+      <c r="F64">
+        <v>0.05275859790137633</v>
+      </c>
+      <c r="G64">
+        <v>0.02397239134933925</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1073915969934974</v>
+        <v>-0.1229480727800669</v>
       </c>
       <c r="C65">
-        <v>-0.06864036812559549</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04459462651434835</v>
+      </c>
+      <c r="D65">
+        <v>0.01012816813521164</v>
+      </c>
+      <c r="E65">
+        <v>0.0005847610950469854</v>
+      </c>
+      <c r="F65">
+        <v>0.05875078767637743</v>
+      </c>
+      <c r="G65">
+        <v>0.01724785429360367</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1336852006228753</v>
+        <v>-0.1519657032393691</v>
       </c>
       <c r="C66">
-        <v>-0.09358659539415871</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.05811268528997947</v>
+      </c>
+      <c r="D66">
+        <v>0.1198506063344685</v>
+      </c>
+      <c r="E66">
+        <v>-0.06216660618408215</v>
+      </c>
+      <c r="F66">
+        <v>0.04514856154389952</v>
+      </c>
+      <c r="G66">
+        <v>0.01009641963555895</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.06913715111272704</v>
+        <v>-0.07473960141571856</v>
       </c>
       <c r="C67">
-        <v>-0.0261266967284711</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.009291782524815256</v>
+      </c>
+      <c r="D67">
+        <v>0.02380451492661065</v>
+      </c>
+      <c r="E67">
+        <v>0.02595416528364551</v>
+      </c>
+      <c r="F67">
+        <v>-0.0009958811000990229</v>
+      </c>
+      <c r="G67">
+        <v>-0.00555906239108126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.0517486261718882</v>
+        <v>-0.06825991104249114</v>
       </c>
       <c r="C68">
-        <v>-0.04767483386102548</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.04747977849120155</v>
+      </c>
+      <c r="D68">
+        <v>-0.265370548326988</v>
+      </c>
+      <c r="E68">
+        <v>0.0503796602310475</v>
+      </c>
+      <c r="F68">
+        <v>0.01087423045921703</v>
+      </c>
+      <c r="G68">
+        <v>-0.003986632109000936</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.04854169762338773</v>
+        <v>-0.05069974271398333</v>
       </c>
       <c r="C69">
-        <v>-0.02929652583953507</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.01243618838717995</v>
+      </c>
+      <c r="D69">
+        <v>0.03577534266612649</v>
+      </c>
+      <c r="E69">
+        <v>0.01619114897700953</v>
+      </c>
+      <c r="F69">
+        <v>0.001532976855711624</v>
+      </c>
+      <c r="G69">
+        <v>-0.003574912086816205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.004767225492266328</v>
+        <v>-0.01416431991823526</v>
       </c>
       <c r="C70">
-        <v>0.002657831684376043</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0009780326028421345</v>
+      </c>
+      <c r="D70">
+        <v>-0.006369137140236753</v>
+      </c>
+      <c r="E70">
+        <v>-0.02318022507506786</v>
+      </c>
+      <c r="F70">
+        <v>0.01109797476212263</v>
+      </c>
+      <c r="G70">
+        <v>-0.0139780745689574</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.05392776042280968</v>
+        <v>-0.07102144646831544</v>
       </c>
       <c r="C71">
-        <v>-0.04660301892977828</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.04676430995278161</v>
+      </c>
+      <c r="D71">
+        <v>-0.2992892689569587</v>
+      </c>
+      <c r="E71">
+        <v>0.04663511243902784</v>
+      </c>
+      <c r="F71">
+        <v>0.03257296294038287</v>
+      </c>
+      <c r="G71">
+        <v>-0.0009439831543333415</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1297981232793415</v>
+        <v>-0.1518026460505668</v>
       </c>
       <c r="C72">
-        <v>-0.07788464268547481</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.04952462555287189</v>
+      </c>
+      <c r="D72">
+        <v>0.01178244806521826</v>
+      </c>
+      <c r="E72">
+        <v>-0.09578572017267913</v>
+      </c>
+      <c r="F72">
+        <v>-0.1624108377602684</v>
+      </c>
+      <c r="G72">
+        <v>0.1163911934213807</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.2432438985669161</v>
+        <v>-0.2694053980321117</v>
       </c>
       <c r="C73">
-        <v>-0.1419347765116909</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.08460123675393121</v>
+      </c>
+      <c r="D73">
+        <v>0.06430214394590143</v>
+      </c>
+      <c r="E73">
+        <v>-0.1843663340985966</v>
+      </c>
+      <c r="F73">
+        <v>0.06412787948481595</v>
+      </c>
+      <c r="G73">
+        <v>-0.2004525308003267</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.07575145561255593</v>
+        <v>-0.08950446220623505</v>
       </c>
       <c r="C74">
-        <v>-0.08285654634673069</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.0627642261563791</v>
+      </c>
+      <c r="D74">
+        <v>0.0330695883956665</v>
+      </c>
+      <c r="E74">
+        <v>-0.004692867759129261</v>
+      </c>
+      <c r="F74">
+        <v>0.000573638373137907</v>
+      </c>
+      <c r="G74">
+        <v>-0.02801488602317609</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.0949597381961057</v>
+        <v>-0.106896014998664</v>
       </c>
       <c r="C75">
-        <v>-0.0692760307703198</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.04003652056619027</v>
+      </c>
+      <c r="D75">
+        <v>0.01605737046468937</v>
+      </c>
+      <c r="E75">
+        <v>0.003647692911726308</v>
+      </c>
+      <c r="F75">
+        <v>0.06541123198428891</v>
+      </c>
+      <c r="G75">
+        <v>-0.01220938588007884</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1159536919833285</v>
+        <v>-0.1318660215365086</v>
       </c>
       <c r="C76">
-        <v>-0.1017641717161748</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.06977469329414238</v>
+      </c>
+      <c r="D76">
+        <v>0.05843451945960334</v>
+      </c>
+      <c r="E76">
+        <v>0.005723422248969284</v>
+      </c>
+      <c r="F76">
+        <v>0.06812240695769688</v>
+      </c>
+      <c r="G76">
+        <v>0.009638920466457665</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.1122465729490749</v>
+        <v>-0.116809824960792</v>
       </c>
       <c r="C77">
-        <v>-0.06246704872233809</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.02678570758696099</v>
+      </c>
+      <c r="D77">
+        <v>0.02895891934196736</v>
+      </c>
+      <c r="E77">
+        <v>-0.0207850249560896</v>
+      </c>
+      <c r="F77">
+        <v>0.2287248419151681</v>
+      </c>
+      <c r="G77">
+        <v>0.8861573580649914</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.08433238210395565</v>
+        <v>-0.1040114178964551</v>
       </c>
       <c r="C78">
-        <v>-0.04778584545396299</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03218382927616104</v>
+      </c>
+      <c r="D78">
+        <v>0.07742030784211566</v>
+      </c>
+      <c r="E78">
+        <v>0.05325292533096292</v>
+      </c>
+      <c r="F78">
+        <v>-0.002087981752689254</v>
+      </c>
+      <c r="G78">
+        <v>0.01535112430716801</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1345513382400304</v>
+        <v>-0.1512407554030799</v>
       </c>
       <c r="C79">
-        <v>-0.1041156091280203</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.06474365391526191</v>
+      </c>
+      <c r="D79">
+        <v>0.0278335935318087</v>
+      </c>
+      <c r="E79">
+        <v>-0.0248026617574112</v>
+      </c>
+      <c r="F79">
+        <v>0.03859512519470946</v>
+      </c>
+      <c r="G79">
+        <v>-0.01140254254296541</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04183084112895234</v>
+        <v>-0.04023198335474781</v>
       </c>
       <c r="C80">
-        <v>-0.02140313387447622</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.009084205139892366</v>
+      </c>
+      <c r="D80">
+        <v>0.02826337121414085</v>
+      </c>
+      <c r="E80">
+        <v>-3.586203695155945e-05</v>
+      </c>
+      <c r="F80">
+        <v>-0.02004321366958481</v>
+      </c>
+      <c r="G80">
+        <v>-0.04077365898581112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1085322644520578</v>
+        <v>-0.1208091848253698</v>
       </c>
       <c r="C81">
-        <v>-0.08253480118933049</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.05158408080907919</v>
+      </c>
+      <c r="D81">
+        <v>0.03249593146604179</v>
+      </c>
+      <c r="E81">
+        <v>-0.006404284014789549</v>
+      </c>
+      <c r="F81">
+        <v>0.03855417452479198</v>
+      </c>
+      <c r="G81">
+        <v>-0.05272712830555963</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1131383563986179</v>
+        <v>-0.1251727367834886</v>
       </c>
       <c r="C82">
-        <v>-0.0953763199721287</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.06113133463869443</v>
+      </c>
+      <c r="D82">
+        <v>0.03771259847070053</v>
+      </c>
+      <c r="E82">
+        <v>-0.0305464839595273</v>
+      </c>
+      <c r="F82">
+        <v>0.05817500386383946</v>
+      </c>
+      <c r="G82">
+        <v>-0.03825763593299681</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.07213937128148218</v>
+        <v>-0.07335884683249555</v>
       </c>
       <c r="C83">
-        <v>-0.02150141990447056</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.001362406543428891</v>
+      </c>
+      <c r="D83">
+        <v>0.04559058259346262</v>
+      </c>
+      <c r="E83">
+        <v>0.004277324687684489</v>
+      </c>
+      <c r="F83">
+        <v>0.007841542226329903</v>
+      </c>
+      <c r="G83">
+        <v>-0.07288850658511782</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.02591572514808656</v>
+        <v>-0.03305205879165656</v>
       </c>
       <c r="C84">
-        <v>-0.01941273937259569</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01731935443719886</v>
+      </c>
+      <c r="D84">
+        <v>0.0166750676083475</v>
+      </c>
+      <c r="E84">
+        <v>0.01841119971584773</v>
+      </c>
+      <c r="F84">
+        <v>-0.03938172914229887</v>
+      </c>
+      <c r="G84">
+        <v>-0.05939773641973641</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1195003082633829</v>
+        <v>-0.1214364703264525</v>
       </c>
       <c r="C85">
-        <v>-0.08141237920300515</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.04341935165191692</v>
+      </c>
+      <c r="D85">
+        <v>0.03021703920475612</v>
+      </c>
+      <c r="E85">
+        <v>0.01120907631512691</v>
+      </c>
+      <c r="F85">
+        <v>0.08234047407008938</v>
+      </c>
+      <c r="G85">
+        <v>-0.00714492333487973</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.04365376570822921</v>
+        <v>-0.04521561201640831</v>
       </c>
       <c r="C86">
-        <v>-0.02303270461232503</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.007446309289410956</v>
+      </c>
+      <c r="D86">
+        <v>0.01487324333379043</v>
+      </c>
+      <c r="E86">
+        <v>0.04697176692745322</v>
+      </c>
+      <c r="F86">
+        <v>0.005281982668756157</v>
+      </c>
+      <c r="G86">
+        <v>-0.01684806816854122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.1151730592982717</v>
+        <v>-0.12096847105962</v>
       </c>
       <c r="C87">
-        <v>-0.08408377623767187</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.04802311914694816</v>
+      </c>
+      <c r="D87">
+        <v>0.07210143848344175</v>
+      </c>
+      <c r="E87">
+        <v>0.0171228198478642</v>
+      </c>
+      <c r="F87">
+        <v>0.02515774230788219</v>
+      </c>
+      <c r="G87">
+        <v>0.1069502969888328</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.05319128133847918</v>
+        <v>-0.05777224638666326</v>
       </c>
       <c r="C88">
-        <v>-0.04203277502161333</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.02540427725082132</v>
+      </c>
+      <c r="D88">
+        <v>0.02648101413491379</v>
+      </c>
+      <c r="E88">
+        <v>0.01893795367951663</v>
+      </c>
+      <c r="F88">
+        <v>0.01182879095200554</v>
+      </c>
+      <c r="G88">
+        <v>0.0158651695228789</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.07153839499869788</v>
+        <v>-0.1053240941538649</v>
       </c>
       <c r="C89">
-        <v>-0.07743244461646948</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.0767042949903563</v>
+      </c>
+      <c r="D89">
+        <v>-0.328657013665849</v>
+      </c>
+      <c r="E89">
+        <v>0.08251408601527542</v>
+      </c>
+      <c r="F89">
+        <v>0.05989650845601754</v>
+      </c>
+      <c r="G89">
+        <v>-0.01585979528685019</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.06513978038023181</v>
+        <v>-0.08765125246360922</v>
       </c>
       <c r="C90">
-        <v>-0.06766190961182757</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.06521899107341969</v>
+      </c>
+      <c r="D90">
+        <v>-0.3084658414638985</v>
+      </c>
+      <c r="E90">
+        <v>0.06828036899503458</v>
+      </c>
+      <c r="F90">
+        <v>-0.01840442533190168</v>
+      </c>
+      <c r="G90">
+        <v>-0.01820229961629919</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.07684892460894531</v>
+        <v>-0.08670663315721817</v>
       </c>
       <c r="C91">
-        <v>-0.06675673219028534</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.04346694970927305</v>
+      </c>
+      <c r="D91">
+        <v>0.03022671604749068</v>
+      </c>
+      <c r="E91">
+        <v>0.00890977728569022</v>
+      </c>
+      <c r="F91">
+        <v>0.01205030182504385</v>
+      </c>
+      <c r="G91">
+        <v>-0.02414056883695589</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.08069981651633448</v>
+        <v>-0.1039172906226711</v>
       </c>
       <c r="C92">
-        <v>-0.06952101337536006</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.06545967352986214</v>
+      </c>
+      <c r="D92">
+        <v>-0.3295045737311755</v>
+      </c>
+      <c r="E92">
+        <v>0.04617381786347854</v>
+      </c>
+      <c r="F92">
+        <v>0.0235553859063204</v>
+      </c>
+      <c r="G92">
+        <v>0.004029296072738623</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.05816201410737103</v>
+        <v>-0.08435575257459443</v>
       </c>
       <c r="C93">
-        <v>-0.06558695208915535</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.06590151014512997</v>
+      </c>
+      <c r="D93">
+        <v>-0.3010136532061498</v>
+      </c>
+      <c r="E93">
+        <v>0.04019801240506411</v>
+      </c>
+      <c r="F93">
+        <v>0.0340622312338744</v>
+      </c>
+      <c r="G93">
+        <v>0.008612609026927813</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1232326291564812</v>
+        <v>-0.126355970920703</v>
       </c>
       <c r="C94">
-        <v>-0.07850631675088617</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.03722892799832393</v>
+      </c>
+      <c r="D94">
+        <v>0.05622088129512947</v>
+      </c>
+      <c r="E94">
+        <v>-0.03088475879815415</v>
+      </c>
+      <c r="F94">
+        <v>0.04447093460235617</v>
+      </c>
+      <c r="G94">
+        <v>-0.03021705549053446</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1145315507912119</v>
+        <v>-0.1210686421791021</v>
       </c>
       <c r="C95">
-        <v>-0.05525018696715234</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.0242516600298368</v>
+      </c>
+      <c r="D95">
+        <v>0.05306218897879833</v>
+      </c>
+      <c r="E95">
+        <v>-0.01043510159919574</v>
+      </c>
+      <c r="F95">
+        <v>0.03801218146236624</v>
+      </c>
+      <c r="G95">
+        <v>-0.01281646659282267</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2896,91 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1940570804339138</v>
+        <v>-0.2215649173082238</v>
       </c>
       <c r="C97">
-        <v>-0.07795396448863497</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.04005295385850693</v>
+      </c>
+      <c r="D97">
+        <v>-0.01052060206286408</v>
+      </c>
+      <c r="E97">
+        <v>-0.1667091489917818</v>
+      </c>
+      <c r="F97">
+        <v>-0.8907815950588964</v>
+      </c>
+      <c r="G97">
+        <v>0.1750832168066626</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2311861036579261</v>
+        <v>-0.2575339991840084</v>
       </c>
       <c r="C98">
-        <v>-0.1238339096672111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.06369419530707936</v>
+      </c>
+      <c r="D98">
+        <v>0.0415025133981379</v>
+      </c>
+      <c r="E98">
+        <v>-0.1468508674959129</v>
+      </c>
+      <c r="F98">
+        <v>0.02426781234187184</v>
+      </c>
+      <c r="G98">
+        <v>-0.2704657173440418</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.5684727671006946</v>
+        <v>-0.3668919034189742</v>
       </c>
       <c r="C99">
-        <v>0.8128104451498129</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9194711892694339</v>
+      </c>
+      <c r="D99">
+        <v>-0.07266844800312204</v>
+      </c>
+      <c r="E99">
+        <v>0.04307725087165511</v>
+      </c>
+      <c r="F99">
+        <v>0.03820890999671545</v>
+      </c>
+      <c r="G99">
+        <v>-0.008689746942724718</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2988,45 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.0355353165428081</v>
+        <v>-0.04239317505132775</v>
       </c>
       <c r="C101">
-        <v>-0.03175481638460714</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02441119033419955</v>
+      </c>
+      <c r="D101">
+        <v>0.01038418154705611</v>
+      </c>
+      <c r="E101">
+        <v>0.03642502645634689</v>
+      </c>
+      <c r="F101">
+        <v>0.01192069569579181</v>
+      </c>
+      <c r="G101">
+        <v>-0.01155967811123355</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
